--- a/data_ana.xlsx
+++ b/data_ana.xlsx
@@ -7929,10 +7929,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M25"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -8068,7 +8068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -8081,14 +8081,8 @@
       <c r="F14" s="7">
         <v>0.1</v>
       </c>
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -8098,14 +8092,9 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>91147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
@@ -8115,14 +8104,9 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>42569</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
@@ -8132,14 +8116,9 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="J17" s="1">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>9489</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
@@ -8153,82 +8132,46 @@
       <c r="F18" s="5">
         <v>3.11</v>
       </c>
-      <c r="J18" s="1">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="J19" s="1">
-        <v>30</v>
-      </c>
-      <c r="K19">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2">
-        <v>0.22508038</v>
+        <v>0.5189906</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="J20" s="1">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>1698</v>
-      </c>
-      <c r="M20">
-        <f>SUM(K17:K25)</f>
-        <v>21619</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="1">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="1">
-        <v>60</v>
-      </c>
-      <c r="K22">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="1">
-        <v>70</v>
-      </c>
-      <c r="K23">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="1">
-        <v>80</v>
-      </c>
-      <c r="K24">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="1">
-        <v>90</v>
-      </c>
-      <c r="K25">
-        <v>437</v>
-      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
